--- a/Preisprognosen.xlsx
+++ b/Preisprognosen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/programming/programming/or_vorlesung/fallstudie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd6b68744377ad7f/DHBW/WS24/SCM_OR/Fallstudie/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB08018-E69E-4646-BA89-1361697EBB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{828DB5FE-40FF-D044-B397-52E81C6DD8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59500B4-FBA7-8744-AEED-4FEE52BE89D9}"/>
   <bookViews>
-    <workbookView xWindow="53160" yWindow="100" windowWidth="49120" windowHeight="28580" xr2:uid="{C0934C5A-232B-8940-B2AE-C4E4B4BBCCD3}"/>
+    <workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240" xr2:uid="{C0934C5A-232B-8940-B2AE-C4E4B4BBCCD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Preisprognosen" sheetId="1" r:id="rId1"/>
@@ -533,56 +533,55 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Schlecht" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="14" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,8 +596,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -914,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F827B3BE-BD6B-204C-90BA-6C723E97169F}">
-  <dimension ref="A1:E601"/>
+  <dimension ref="A1:C601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E502" sqref="E502"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,10 +929,9 @@
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -940,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>1/25</f>
         <v>0.04</v>
@@ -951,12 +953,8 @@
       <c r="C2">
         <v>66</v>
       </c>
-      <c r="E2" s="3">
-        <f>AVERAGE(C2:C26)</f>
-        <v>81.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A66" si="0">1/25</f>
         <v>0.04</v>
@@ -968,7 +966,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -980,7 +978,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -992,7 +990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1004,7 +1002,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1016,7 +1014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1028,7 +1026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1040,7 +1038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1052,7 +1050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1064,7 +1062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1076,7 +1074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1088,7 +1086,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1100,7 +1098,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1112,7 +1110,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1124,7 +1122,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1136,7 +1134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1148,7 +1146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1160,7 +1158,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1172,7 +1170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1184,7 +1182,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1196,7 +1194,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1208,7 +1206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1220,7 +1218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1232,7 +1230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1244,7 +1242,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1255,12 +1253,8 @@
       <c r="C27">
         <v>58</v>
       </c>
-      <c r="E27" s="3">
-        <f>AVERAGE(C27:C51)</f>
-        <v>72.239999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1272,7 +1266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1284,7 +1278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1296,7 +1290,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1308,7 +1302,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1512,7 +1506,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1524,7 +1518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1536,7 +1530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1548,7 +1542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1559,12 +1553,8 @@
       <c r="C52">
         <v>44</v>
       </c>
-      <c r="E52" s="3">
-        <f>AVERAGE(C52:C76)</f>
-        <v>68.16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1576,7 +1566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1588,7 +1578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1600,7 +1590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1612,7 +1602,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1624,7 +1614,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1636,7 +1626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1648,7 +1638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1660,7 +1650,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1672,7 +1662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1684,7 +1674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1696,7 +1686,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1708,7 +1698,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1720,7 +1710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -1732,7 +1722,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f t="shared" ref="A67:A130" si="1">1/25</f>
         <v>0.04</v>
@@ -1744,7 +1734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1756,7 +1746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1768,7 +1758,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1780,7 +1770,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1792,7 +1782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1804,7 +1794,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1816,7 +1806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1828,7 +1818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1840,7 +1830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1852,7 +1842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1863,12 +1853,8 @@
       <c r="C77">
         <v>41</v>
       </c>
-      <c r="E77" s="3">
-        <f>AVERAGE(C77:C101)</f>
-        <v>66.64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1880,7 +1866,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -1892,7 +1878,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2096,7 +2082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2108,7 +2094,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2120,7 +2106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2132,7 +2118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2144,7 +2130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2156,7 +2142,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2167,12 +2153,8 @@
       <c r="C102">
         <v>27</v>
       </c>
-      <c r="E102" s="3">
-        <f>AVERAGE(C102:C126)</f>
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2184,7 +2166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2196,7 +2178,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2208,7 +2190,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2220,7 +2202,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2232,7 +2214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2244,7 +2226,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2256,7 +2238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2268,7 +2250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2280,7 +2262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2292,7 +2274,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2304,7 +2286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2316,7 +2298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2328,7 +2310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2340,7 +2322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2352,7 +2334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2364,7 +2346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2376,7 +2358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2388,7 +2370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2400,7 +2382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2412,7 +2394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2424,7 +2406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2436,7 +2418,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2448,7 +2430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2460,7 +2442,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2471,12 +2453,8 @@
       <c r="C127">
         <v>98</v>
       </c>
-      <c r="E127" s="3">
-        <f>AVERAGE(C127:C151)</f>
-        <v>71.040000000000006</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -2680,7 +2658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2692,7 +2670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2704,7 +2682,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2716,7 +2694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2728,7 +2706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2740,7 +2718,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2752,7 +2730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2764,7 +2742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2775,12 +2753,8 @@
       <c r="C152">
         <v>92</v>
       </c>
-      <c r="E152" s="3">
-        <f>AVERAGE(C152:C176)</f>
-        <v>88.56</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2792,7 +2766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2804,7 +2778,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2816,7 +2790,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2828,7 +2802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2840,7 +2814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2852,7 +2826,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -2864,7 +2838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3068,7 +3042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3079,12 +3053,8 @@
       <c r="C177">
         <v>56</v>
       </c>
-      <c r="E177" s="3">
-        <f>AVERAGE(C177:C201)</f>
-        <v>92.68</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3096,7 +3066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3108,7 +3078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3120,7 +3090,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3132,7 +3102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3144,7 +3114,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3156,7 +3126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3168,7 +3138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3180,7 +3150,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3192,7 +3162,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3204,7 +3174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3216,7 +3186,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3228,7 +3198,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3240,7 +3210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3252,7 +3222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3264,7 +3234,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3276,7 +3246,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <f t="shared" si="2"/>
         <v>0.04</v>
@@ -3288,7 +3258,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <f t="shared" ref="A195:A258" si="3">1/25</f>
         <v>0.04</v>
@@ -3300,7 +3270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3312,7 +3282,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3324,7 +3294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3336,7 +3306,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3348,7 +3318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3360,7 +3330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3372,7 +3342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3383,12 +3353,8 @@
       <c r="C202">
         <v>85</v>
       </c>
-      <c r="E202" s="3">
-        <f>AVERAGE(C202:C226)</f>
-        <v>80.92</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3400,7 +3366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3412,7 +3378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3424,7 +3390,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3436,7 +3402,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3448,7 +3414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3652,7 +3618,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3664,7 +3630,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3676,7 +3642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3687,12 +3653,8 @@
       <c r="C227">
         <v>-10</v>
       </c>
-      <c r="E227" s="3">
-        <f>AVERAGE(C227:C251)</f>
-        <v>61.08</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3704,7 +3666,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3716,7 +3678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3728,7 +3690,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3740,7 +3702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3752,7 +3714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3764,7 +3726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3776,7 +3738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3788,7 +3750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3800,7 +3762,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3812,7 +3774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3824,7 +3786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3836,7 +3798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3848,7 +3810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3860,7 +3822,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3872,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3884,7 +3846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3896,7 +3858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3908,7 +3870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3920,7 +3882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3932,7 +3894,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3944,7 +3906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3956,7 +3918,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3968,7 +3930,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3980,7 +3942,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -3991,12 +3953,8 @@
       <c r="C252">
         <v>10</v>
       </c>
-      <c r="E252" s="3">
-        <f>AVERAGE(C252:C276)</f>
-        <v>43.08</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -4008,7 +3966,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -4020,7 +3978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -4032,7 +3990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
@@ -4236,7 +4194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4248,7 +4206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4260,7 +4218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4272,7 +4230,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4284,7 +4242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4295,12 +4253,8 @@
       <c r="C277">
         <v>31</v>
       </c>
-      <c r="E277" s="3">
-        <f>AVERAGE(C277:C301)</f>
-        <v>30.88</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4312,7 +4266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4324,7 +4278,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4336,7 +4290,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4348,7 +4302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4360,7 +4314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4372,7 +4326,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4384,7 +4338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4396,7 +4350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4408,7 +4362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4420,7 +4374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4432,7 +4386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4444,7 +4398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4456,7 +4410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4468,7 +4422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4480,7 +4434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4492,7 +4446,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4504,7 +4458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4516,7 +4470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4528,7 +4482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4540,7 +4494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4552,7 +4506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4564,7 +4518,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4576,7 +4530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4588,7 +4542,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4599,12 +4553,8 @@
       <c r="C302">
         <v>-23</v>
       </c>
-      <c r="E302" s="3">
-        <f>AVERAGE(C302:C326)</f>
-        <v>22.44</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4616,7 +4566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4820,7 +4770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4832,7 +4782,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <f t="shared" si="4"/>
         <v>0.04</v>
@@ -4844,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <f t="shared" ref="A323:A386" si="5">1/25</f>
         <v>0.04</v>
@@ -4856,7 +4806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4868,7 +4818,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4880,7 +4830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4892,7 +4842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4903,12 +4853,8 @@
       <c r="C327">
         <v>62</v>
       </c>
-      <c r="E327" s="3">
-        <f>AVERAGE(C327:C351)</f>
-        <v>15.96</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4920,7 +4866,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4932,7 +4878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4944,7 +4890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4956,7 +4902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4968,7 +4914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4980,7 +4926,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -4992,7 +4938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5004,7 +4950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5016,7 +4962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5028,7 +4974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5040,7 +4986,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5052,7 +4998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5064,7 +5010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5076,7 +5022,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5088,7 +5034,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5100,7 +5046,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5112,7 +5058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5124,7 +5070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5136,7 +5082,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5148,7 +5094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5160,7 +5106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5172,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5184,7 +5130,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5196,7 +5142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5206,10 +5152,6 @@
       </c>
       <c r="C352">
         <v>-20</v>
-      </c>
-      <c r="E352" s="3">
-        <f>AVERAGE(C352:C376)</f>
-        <v>12.52</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -5404,7 +5346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5416,7 +5358,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5428,7 +5370,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5440,7 +5382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5452,7 +5394,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5464,7 +5406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5476,7 +5418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5488,7 +5430,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5500,7 +5442,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5511,12 +5453,8 @@
       <c r="C377">
         <v>54</v>
       </c>
-      <c r="E377" s="3">
-        <f>AVERAGE(C377:C401)</f>
-        <v>18.440000000000001</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5528,7 +5466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5540,7 +5478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5552,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5564,7 +5502,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5576,7 +5514,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5588,7 +5526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
@@ -5792,7 +5730,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5804,7 +5742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5815,12 +5753,8 @@
       <c r="C402">
         <v>13</v>
       </c>
-      <c r="E402" s="3">
-        <f>AVERAGE(C402:C426)</f>
-        <v>34.880000000000003</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5832,7 +5766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5844,7 +5778,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5856,7 +5790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5868,7 +5802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5880,7 +5814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5892,7 +5826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5904,7 +5838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5916,7 +5850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5928,7 +5862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5940,7 +5874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5952,7 +5886,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5964,7 +5898,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5976,7 +5910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -5988,7 +5922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6000,7 +5934,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6012,7 +5946,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6024,7 +5958,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6036,7 +5970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6048,7 +5982,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6060,7 +5994,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6072,7 +6006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6084,7 +6018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6096,7 +6030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6108,7 +6042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6119,12 +6053,8 @@
       <c r="C427">
         <v>74</v>
       </c>
-      <c r="E427" s="3">
-        <f>AVERAGE(C427:C451)</f>
-        <v>56.56</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6136,7 +6066,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6148,7 +6078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6160,7 +6090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6172,7 +6102,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6376,7 +6306,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6388,7 +6318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <f t="shared" si="6"/>
         <v>0.04</v>
@@ -6400,7 +6330,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <f t="shared" ref="A451:A514" si="7">1/25</f>
         <v>0.04</v>
@@ -6412,7 +6342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6423,12 +6353,8 @@
       <c r="C452">
         <v>100</v>
       </c>
-      <c r="E452" s="3">
-        <f>AVERAGE(C452:C476)</f>
-        <v>78.44</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6440,7 +6366,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6452,7 +6378,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6464,7 +6390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6476,7 +6402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6488,7 +6414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6500,7 +6426,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6512,7 +6438,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6524,7 +6450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6536,7 +6462,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6548,7 +6474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6560,7 +6486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6572,7 +6498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6584,7 +6510,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6596,7 +6522,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6608,7 +6534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6620,7 +6546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6632,7 +6558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6644,7 +6570,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6656,7 +6582,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6668,7 +6594,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6680,7 +6606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6692,7 +6618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6704,7 +6630,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6716,7 +6642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6727,12 +6653,8 @@
       <c r="C477">
         <v>62</v>
       </c>
-      <c r="E477" s="3">
-        <f>AVERAGE(C477:C501)</f>
-        <v>105.6</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6744,7 +6666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6756,7 +6678,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6960,7 +6882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6972,7 +6894,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6984,7 +6906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -6996,7 +6918,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7008,7 +6930,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7020,7 +6942,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7031,12 +6953,8 @@
       <c r="C502">
         <v>183</v>
       </c>
-      <c r="E502" s="3">
-        <f>AVERAGE(C502:C526)</f>
-        <v>144.80000000000001</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7048,7 +6966,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7060,7 +6978,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7072,7 +6990,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7084,7 +7002,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7096,7 +7014,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7108,7 +7026,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7120,7 +7038,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7132,7 +7050,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7144,7 +7062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7156,7 +7074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7168,7 +7086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <f t="shared" si="7"/>
         <v>0.04</v>
@@ -7180,7 +7098,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <f t="shared" ref="A515:A578" si="8">1/25</f>
         <v>0.04</v>
@@ -7192,7 +7110,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7204,7 +7122,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7216,7 +7134,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7228,7 +7146,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7240,7 +7158,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7252,7 +7170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7264,7 +7182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7276,7 +7194,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7288,7 +7206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7300,7 +7218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7312,7 +7230,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7324,7 +7242,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7335,12 +7253,8 @@
       <c r="C527">
         <v>128</v>
       </c>
-      <c r="E527" s="3">
-        <f>AVERAGE(C527:C551)</f>
-        <v>125.12</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7544,7 +7458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7556,7 +7470,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7568,7 +7482,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7580,7 +7494,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7592,7 +7506,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7604,7 +7518,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7616,7 +7530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7628,7 +7542,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7639,12 +7553,8 @@
       <c r="C552">
         <v>77</v>
       </c>
-      <c r="E552" s="3">
-        <f>AVERAGE(C552:C576)</f>
-        <v>101.36</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7656,7 +7566,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7668,7 +7578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7680,7 +7590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7692,7 +7602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7704,7 +7614,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7716,7 +7626,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7728,7 +7638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7932,7 +7842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7943,12 +7853,8 @@
       <c r="C577">
         <v>101</v>
       </c>
-      <c r="E577" s="3">
-        <f>AVERAGE(C577:C601)</f>
-        <v>85.28</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <f t="shared" si="8"/>
         <v>0.04</v>
@@ -7960,7 +7866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <f t="shared" ref="A579:A601" si="9">1/25</f>
         <v>0.04</v>
@@ -7972,7 +7878,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -7984,7 +7890,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -7996,7 +7902,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8008,7 +7914,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8020,7 +7926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8032,7 +7938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8044,7 +7950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8056,7 +7962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8068,7 +7974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8080,7 +7986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8092,7 +7998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8104,7 +8010,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
@@ -8116,7 +8022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <f t="shared" si="9"/>
         <v>0.04</v>
